--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_3.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[('0:00:08.200000', '0:00:30.680000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:38.120000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1107692307692308</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.48, 13.64)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.937548, 16.810929)]</t>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4504385964912281</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[('0:02:08.853900', '0:02:18.002562')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7758620689655172</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:41.336219', '0:00:56.966621')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>0.2202898550724638</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[(1.5, 4.8)]</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:01.920000', '0:00:05.280000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1107692307692308</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[('0:00:10.937548', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.440000', '0:00:12.420000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(68.82, 84.54)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.0, 114.06)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.76, 118.78)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
